--- a/assets/files/us_historical_probs_8_31_23.xlsx
+++ b/assets/files/us_historical_probs_8_31_23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpiger/Dropbox/Work/WebSite/BusinessCycleDates/National/2023/August 31, 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79329991-DDA4-D244-9D9E-5330FB6A45FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788A30D5-B473-DE42-8D7A-932759417287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="20240" windowHeight="11320"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="20240" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="us_historical_probs_8_31_23" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -498,11 +498,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -857,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4089,2168 +4088,2168 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="3">
-        <v>44927</v>
+      <c r="A404" s="1">
+        <v>36892</v>
       </c>
       <c r="B404" s="2">
         <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" s="3">
-        <v>44958</v>
+      <c r="A405" s="1">
+        <v>36923</v>
       </c>
       <c r="B405" s="2">
         <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" s="3">
-        <v>44986</v>
+      <c r="A406" s="1">
+        <v>36951</v>
       </c>
       <c r="B406" s="2">
         <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" s="3">
-        <v>45017</v>
+      <c r="A407" s="1">
+        <v>36982</v>
       </c>
       <c r="B407" s="2">
         <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="3">
-        <v>45047</v>
+      <c r="A408" s="1">
+        <v>37012</v>
       </c>
       <c r="B408" s="2">
         <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" s="3">
-        <v>45078</v>
+      <c r="A409" s="1">
+        <v>37043</v>
       </c>
       <c r="B409" s="2">
         <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="3">
-        <v>45108</v>
+      <c r="A410" s="1">
+        <v>37073</v>
       </c>
       <c r="B410" s="2">
         <v>0.38</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="3">
-        <v>45139</v>
+      <c r="A411" s="1">
+        <v>37104</v>
       </c>
       <c r="B411" s="2">
         <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="3">
-        <v>45170</v>
+      <c r="A412" s="1">
+        <v>37135</v>
       </c>
       <c r="B412" s="2">
         <v>0.35799999999999998</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" s="3">
-        <v>45200</v>
+      <c r="A413" s="1">
+        <v>37165</v>
       </c>
       <c r="B413" s="2">
         <v>0.28299999999999997</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="3">
-        <v>45231</v>
+      <c r="A414" s="1">
+        <v>37196</v>
       </c>
       <c r="B414" s="2">
         <v>0.23300000000000001</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" s="3">
-        <v>45261</v>
+      <c r="A415" s="1">
+        <v>37226</v>
       </c>
       <c r="B415" s="2">
         <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" s="3">
-        <v>44928</v>
+      <c r="A416" s="1">
+        <v>37257</v>
       </c>
       <c r="B416" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" s="3">
-        <v>44959</v>
+      <c r="A417" s="1">
+        <v>37288</v>
       </c>
       <c r="B417" s="2">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" s="3">
-        <v>44987</v>
+      <c r="A418" s="1">
+        <v>37316</v>
       </c>
       <c r="B418" s="2">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="3">
-        <v>45018</v>
+      <c r="A419" s="1">
+        <v>37347</v>
       </c>
       <c r="B419" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" s="3">
-        <v>45048</v>
+      <c r="A420" s="1">
+        <v>37377</v>
       </c>
       <c r="B420" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="3">
-        <v>45079</v>
+      <c r="A421" s="1">
+        <v>37408</v>
       </c>
       <c r="B421" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="3">
-        <v>45109</v>
+      <c r="A422" s="1">
+        <v>37438</v>
       </c>
       <c r="B422" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="3">
-        <v>45140</v>
+      <c r="A423" s="1">
+        <v>37469</v>
       </c>
       <c r="B423" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="3">
-        <v>45171</v>
+      <c r="A424" s="1">
+        <v>37500</v>
       </c>
       <c r="B424" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" s="3">
-        <v>45201</v>
+      <c r="A425" s="1">
+        <v>37530</v>
       </c>
       <c r="B425" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="3">
-        <v>45232</v>
+      <c r="A426" s="1">
+        <v>37561</v>
       </c>
       <c r="B426" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="3">
-        <v>45262</v>
+      <c r="A427" s="1">
+        <v>37591</v>
       </c>
       <c r="B427" s="2">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" s="3">
-        <v>44929</v>
+      <c r="A428" s="1">
+        <v>37622</v>
       </c>
       <c r="B428" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" s="3">
-        <v>44960</v>
+      <c r="A429" s="1">
+        <v>37653</v>
       </c>
       <c r="B429" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" s="3">
-        <v>44988</v>
+      <c r="A430" s="1">
+        <v>37681</v>
       </c>
       <c r="B430" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="3">
-        <v>45019</v>
+      <c r="A431" s="1">
+        <v>37712</v>
       </c>
       <c r="B431" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="3">
-        <v>45049</v>
+      <c r="A432" s="1">
+        <v>37742</v>
       </c>
       <c r="B432" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" s="3">
-        <v>45080</v>
+      <c r="A433" s="1">
+        <v>37773</v>
       </c>
       <c r="B433" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="3">
-        <v>45110</v>
+      <c r="A434" s="1">
+        <v>37803</v>
       </c>
       <c r="B434" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="3">
-        <v>45141</v>
+      <c r="A435" s="1">
+        <v>37834</v>
       </c>
       <c r="B435" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="3">
-        <v>45172</v>
+      <c r="A436" s="1">
+        <v>37865</v>
       </c>
       <c r="B436" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" s="3">
-        <v>45202</v>
+      <c r="A437" s="1">
+        <v>37895</v>
       </c>
       <c r="B437" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" s="3">
-        <v>45233</v>
+      <c r="A438" s="1">
+        <v>37926</v>
       </c>
       <c r="B438" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" s="3">
-        <v>45263</v>
+      <c r="A439" s="1">
+        <v>37956</v>
       </c>
       <c r="B439" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" s="3">
-        <v>44930</v>
+      <c r="A440" s="1">
+        <v>37987</v>
       </c>
       <c r="B440" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" s="3">
-        <v>44961</v>
+      <c r="A441" s="1">
+        <v>38018</v>
       </c>
       <c r="B441" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" s="3">
-        <v>44989</v>
+      <c r="A442" s="1">
+        <v>38047</v>
       </c>
       <c r="B442" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" s="3">
-        <v>45020</v>
+      <c r="A443" s="1">
+        <v>38078</v>
       </c>
       <c r="B443" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" s="3">
-        <v>45050</v>
+      <c r="A444" s="1">
+        <v>38108</v>
       </c>
       <c r="B444" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" s="3">
-        <v>45081</v>
+      <c r="A445" s="1">
+        <v>38139</v>
       </c>
       <c r="B445" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" s="3">
-        <v>45111</v>
+      <c r="A446" s="1">
+        <v>38169</v>
       </c>
       <c r="B446" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" s="3">
-        <v>45142</v>
+      <c r="A447" s="1">
+        <v>38200</v>
       </c>
       <c r="B447" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" s="3">
-        <v>45173</v>
+      <c r="A448" s="1">
+        <v>38231</v>
       </c>
       <c r="B448" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="3">
-        <v>45203</v>
+      <c r="A449" s="1">
+        <v>38261</v>
       </c>
       <c r="B449" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="3">
-        <v>45234</v>
+      <c r="A450" s="1">
+        <v>38292</v>
       </c>
       <c r="B450" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="3">
-        <v>45264</v>
+      <c r="A451" s="1">
+        <v>38322</v>
       </c>
       <c r="B451" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="3">
-        <v>44931</v>
+      <c r="A452" s="1">
+        <v>38353</v>
       </c>
       <c r="B452" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="3">
-        <v>44962</v>
+      <c r="A453" s="1">
+        <v>38384</v>
       </c>
       <c r="B453" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="3">
-        <v>44990</v>
+      <c r="A454" s="1">
+        <v>38412</v>
       </c>
       <c r="B454" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" s="3">
-        <v>45021</v>
+      <c r="A455" s="1">
+        <v>38443</v>
       </c>
       <c r="B455" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" s="3">
-        <v>45051</v>
+      <c r="A456" s="1">
+        <v>38473</v>
       </c>
       <c r="B456" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" s="3">
-        <v>45082</v>
+      <c r="A457" s="1">
+        <v>38504</v>
       </c>
       <c r="B457" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="3">
-        <v>45112</v>
+      <c r="A458" s="1">
+        <v>38534</v>
       </c>
       <c r="B458" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="3">
-        <v>45143</v>
+      <c r="A459" s="1">
+        <v>38565</v>
       </c>
       <c r="B459" s="2">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="3">
-        <v>45174</v>
+      <c r="A460" s="1">
+        <v>38596</v>
       </c>
       <c r="B460" s="2">
         <v>0.107</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="3">
-        <v>45204</v>
+      <c r="A461" s="1">
+        <v>38626</v>
       </c>
       <c r="B461" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" s="3">
-        <v>45235</v>
+      <c r="A462" s="1">
+        <v>38657</v>
       </c>
       <c r="B462" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" s="3">
-        <v>45265</v>
+      <c r="A463" s="1">
+        <v>38687</v>
       </c>
       <c r="B463" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" s="3">
-        <v>44932</v>
+      <c r="A464" s="1">
+        <v>38718</v>
       </c>
       <c r="B464" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A465" s="3">
-        <v>44963</v>
+      <c r="A465" s="1">
+        <v>38749</v>
       </c>
       <c r="B465" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466" s="3">
-        <v>44991</v>
+      <c r="A466" s="1">
+        <v>38777</v>
       </c>
       <c r="B466" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467" s="3">
-        <v>45022</v>
+      <c r="A467" s="1">
+        <v>38808</v>
       </c>
       <c r="B467" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" s="3">
-        <v>45052</v>
+      <c r="A468" s="1">
+        <v>38838</v>
       </c>
       <c r="B468" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" s="3">
-        <v>45083</v>
+      <c r="A469" s="1">
+        <v>38869</v>
       </c>
       <c r="B469" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" s="3">
-        <v>45113</v>
+      <c r="A470" s="1">
+        <v>38899</v>
       </c>
       <c r="B470" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" s="3">
-        <v>45144</v>
+      <c r="A471" s="1">
+        <v>38930</v>
       </c>
       <c r="B471" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" s="3">
-        <v>45175</v>
+      <c r="A472" s="1">
+        <v>38961</v>
       </c>
       <c r="B472" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473" s="3">
-        <v>45205</v>
+      <c r="A473" s="1">
+        <v>38991</v>
       </c>
       <c r="B473" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474" s="3">
-        <v>45236</v>
+      <c r="A474" s="1">
+        <v>39022</v>
       </c>
       <c r="B474" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475" s="3">
-        <v>45266</v>
+      <c r="A475" s="1">
+        <v>39052</v>
       </c>
       <c r="B475" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" s="3">
-        <v>44933</v>
+      <c r="A476" s="1">
+        <v>39083</v>
       </c>
       <c r="B476" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477" s="3">
-        <v>44964</v>
+      <c r="A477" s="1">
+        <v>39114</v>
       </c>
       <c r="B477" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" s="3">
-        <v>44992</v>
+      <c r="A478" s="1">
+        <v>39142</v>
       </c>
       <c r="B478" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" s="3">
-        <v>45023</v>
+      <c r="A479" s="1">
+        <v>39173</v>
       </c>
       <c r="B479" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" s="3">
-        <v>45053</v>
+      <c r="A480" s="1">
+        <v>39203</v>
       </c>
       <c r="B480" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" s="3">
-        <v>45084</v>
+      <c r="A481" s="1">
+        <v>39234</v>
       </c>
       <c r="B481" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" s="3">
-        <v>45114</v>
+      <c r="A482" s="1">
+        <v>39264</v>
       </c>
       <c r="B482" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" s="3">
-        <v>45145</v>
+      <c r="A483" s="1">
+        <v>39295</v>
       </c>
       <c r="B483" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" s="3">
-        <v>45176</v>
+      <c r="A484" s="1">
+        <v>39326</v>
       </c>
       <c r="B484" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" s="3">
-        <v>45206</v>
+      <c r="A485" s="1">
+        <v>39356</v>
       </c>
       <c r="B485" s="2">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" s="3">
-        <v>45237</v>
+      <c r="A486" s="1">
+        <v>39387</v>
       </c>
       <c r="B486" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487" s="3">
-        <v>45267</v>
+      <c r="A487" s="1">
+        <v>39417</v>
       </c>
       <c r="B487" s="2">
         <v>0.108</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" s="3">
-        <v>44934</v>
+      <c r="A488" s="1">
+        <v>39448</v>
       </c>
       <c r="B488" s="2">
         <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" s="3">
-        <v>44965</v>
+      <c r="A489" s="1">
+        <v>39479</v>
       </c>
       <c r="B489" s="2">
         <v>0.498</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" s="3">
-        <v>44993</v>
+      <c r="A490" s="1">
+        <v>39508</v>
       </c>
       <c r="B490" s="2">
         <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" s="3">
-        <v>45024</v>
+      <c r="A491" s="1">
+        <v>39539</v>
       </c>
       <c r="B491" s="2">
         <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492" s="3">
-        <v>45054</v>
+      <c r="A492" s="1">
+        <v>39569</v>
       </c>
       <c r="B492" s="2">
         <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493" s="3">
-        <v>45085</v>
+      <c r="A493" s="1">
+        <v>39600</v>
       </c>
       <c r="B493" s="2">
         <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A494" s="3">
-        <v>45115</v>
+      <c r="A494" s="1">
+        <v>39630</v>
       </c>
       <c r="B494" s="2">
         <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A495" s="3">
-        <v>45146</v>
+      <c r="A495" s="1">
+        <v>39661</v>
       </c>
       <c r="B495" s="2">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A496" s="3">
-        <v>45177</v>
+      <c r="A496" s="1">
+        <v>39692</v>
       </c>
       <c r="B496" s="2">
         <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A497" s="3">
-        <v>45207</v>
+      <c r="A497" s="1">
+        <v>39722</v>
       </c>
       <c r="B497" s="2">
         <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A498" s="3">
-        <v>45238</v>
+      <c r="A498" s="1">
+        <v>39753</v>
       </c>
       <c r="B498" s="2">
         <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A499" s="3">
-        <v>45268</v>
+      <c r="A499" s="1">
+        <v>39783</v>
       </c>
       <c r="B499" s="2">
         <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A500" s="3">
-        <v>44935</v>
+      <c r="A500" s="1">
+        <v>39814</v>
       </c>
       <c r="B500" s="2">
         <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A501" s="3">
-        <v>44966</v>
+      <c r="A501" s="1">
+        <v>39845</v>
       </c>
       <c r="B501" s="2">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A502" s="3">
-        <v>44994</v>
+      <c r="A502" s="1">
+        <v>39873</v>
       </c>
       <c r="B502" s="2">
         <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A503" s="3">
-        <v>45025</v>
+      <c r="A503" s="1">
+        <v>39904</v>
       </c>
       <c r="B503" s="2">
         <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A504" s="3">
-        <v>45055</v>
+      <c r="A504" s="1">
+        <v>39934</v>
       </c>
       <c r="B504" s="2">
         <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A505" s="3">
-        <v>45086</v>
+      <c r="A505" s="1">
+        <v>39965</v>
       </c>
       <c r="B505" s="2">
         <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A506" s="3">
-        <v>45116</v>
+      <c r="A506" s="1">
+        <v>39995</v>
       </c>
       <c r="B506" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A507" s="3">
-        <v>45147</v>
+      <c r="A507" s="1">
+        <v>40026</v>
       </c>
       <c r="B507" s="2">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A508" s="3">
-        <v>45178</v>
+      <c r="A508" s="1">
+        <v>40057</v>
       </c>
       <c r="B508" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A509" s="3">
-        <v>45208</v>
+      <c r="A509" s="1">
+        <v>40087</v>
       </c>
       <c r="B509" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A510" s="3">
-        <v>45239</v>
+      <c r="A510" s="1">
+        <v>40118</v>
       </c>
       <c r="B510" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511" s="3">
-        <v>45269</v>
+      <c r="A511" s="1">
+        <v>40148</v>
       </c>
       <c r="B511" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A512" s="3">
-        <v>44936</v>
+      <c r="A512" s="1">
+        <v>40179</v>
       </c>
       <c r="B512" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A513" s="3">
-        <v>44967</v>
+      <c r="A513" s="1">
+        <v>40210</v>
       </c>
       <c r="B513" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A514" s="3">
-        <v>44995</v>
+      <c r="A514" s="1">
+        <v>40238</v>
       </c>
       <c r="B514" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A515" s="3">
-        <v>45026</v>
+      <c r="A515" s="1">
+        <v>40269</v>
       </c>
       <c r="B515" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A516" s="3">
-        <v>45056</v>
+      <c r="A516" s="1">
+        <v>40299</v>
       </c>
       <c r="B516" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A517" s="3">
-        <v>45087</v>
+      <c r="A517" s="1">
+        <v>40330</v>
       </c>
       <c r="B517" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A518" s="3">
-        <v>45117</v>
+      <c r="A518" s="1">
+        <v>40360</v>
       </c>
       <c r="B518" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A519" s="3">
-        <v>45148</v>
+      <c r="A519" s="1">
+        <v>40391</v>
       </c>
       <c r="B519" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A520" s="3">
-        <v>45179</v>
+      <c r="A520" s="1">
+        <v>40422</v>
       </c>
       <c r="B520" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A521" s="3">
-        <v>45209</v>
+      <c r="A521" s="1">
+        <v>40452</v>
       </c>
       <c r="B521" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A522" s="3">
-        <v>45240</v>
+      <c r="A522" s="1">
+        <v>40483</v>
       </c>
       <c r="B522" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A523" s="3">
-        <v>45270</v>
+      <c r="A523" s="1">
+        <v>40513</v>
       </c>
       <c r="B523" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A524" s="3">
-        <v>44937</v>
+      <c r="A524" s="1">
+        <v>40544</v>
       </c>
       <c r="B524" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A525" s="3">
-        <v>44968</v>
+      <c r="A525" s="1">
+        <v>40575</v>
       </c>
       <c r="B525" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A526" s="3">
-        <v>44996</v>
+      <c r="A526" s="1">
+        <v>40603</v>
       </c>
       <c r="B526" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A527" s="3">
-        <v>45027</v>
+      <c r="A527" s="1">
+        <v>40634</v>
       </c>
       <c r="B527" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A528" s="3">
-        <v>45057</v>
+      <c r="A528" s="1">
+        <v>40664</v>
       </c>
       <c r="B528" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A529" s="3">
-        <v>45088</v>
+      <c r="A529" s="1">
+        <v>40695</v>
       </c>
       <c r="B529" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A530" s="3">
-        <v>45118</v>
+      <c r="A530" s="1">
+        <v>40725</v>
       </c>
       <c r="B530" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531" s="3">
-        <v>45149</v>
+      <c r="A531" s="1">
+        <v>40756</v>
       </c>
       <c r="B531" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532" s="3">
-        <v>45180</v>
+      <c r="A532" s="1">
+        <v>40787</v>
       </c>
       <c r="B532" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A533" s="3">
-        <v>45210</v>
+      <c r="A533" s="1">
+        <v>40817</v>
       </c>
       <c r="B533" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A534" s="3">
-        <v>45241</v>
+      <c r="A534" s="1">
+        <v>40848</v>
       </c>
       <c r="B534" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A535" s="3">
-        <v>45271</v>
+      <c r="A535" s="1">
+        <v>40878</v>
       </c>
       <c r="B535" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536" s="3">
-        <v>44938</v>
+      <c r="A536" s="1">
+        <v>40909</v>
       </c>
       <c r="B536" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537" s="3">
-        <v>44969</v>
+      <c r="A537" s="1">
+        <v>40940</v>
       </c>
       <c r="B537" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538" s="3">
-        <v>44997</v>
+      <c r="A538" s="1">
+        <v>40969</v>
       </c>
       <c r="B538" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539" s="3">
-        <v>45028</v>
+      <c r="A539" s="1">
+        <v>41000</v>
       </c>
       <c r="B539" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540" s="3">
-        <v>45058</v>
+      <c r="A540" s="1">
+        <v>41030</v>
       </c>
       <c r="B540" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="3">
-        <v>45089</v>
+      <c r="A541" s="1">
+        <v>41061</v>
       </c>
       <c r="B541" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542" s="3">
-        <v>45119</v>
+      <c r="A542" s="1">
+        <v>41091</v>
       </c>
       <c r="B542" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543" s="3">
-        <v>45150</v>
+      <c r="A543" s="1">
+        <v>41122</v>
       </c>
       <c r="B543" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544" s="3">
-        <v>45181</v>
+      <c r="A544" s="1">
+        <v>41153</v>
       </c>
       <c r="B544" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A545" s="3">
-        <v>45211</v>
+      <c r="A545" s="1">
+        <v>41183</v>
       </c>
       <c r="B545" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A546" s="3">
-        <v>45242</v>
+      <c r="A546" s="1">
+        <v>41214</v>
       </c>
       <c r="B546" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A547" s="3">
-        <v>45272</v>
+      <c r="A547" s="1">
+        <v>41244</v>
       </c>
       <c r="B547" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A548" s="3">
-        <v>44939</v>
+      <c r="A548" s="1">
+        <v>41275</v>
       </c>
       <c r="B548" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A549" s="3">
-        <v>44970</v>
+      <c r="A549" s="1">
+        <v>41306</v>
       </c>
       <c r="B549" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A550" s="3">
-        <v>44998</v>
+      <c r="A550" s="1">
+        <v>41334</v>
       </c>
       <c r="B550" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551" s="3">
-        <v>45029</v>
+      <c r="A551" s="1">
+        <v>41365</v>
       </c>
       <c r="B551" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A552" s="3">
-        <v>45059</v>
+      <c r="A552" s="1">
+        <v>41395</v>
       </c>
       <c r="B552" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A553" s="3">
-        <v>45090</v>
+      <c r="A553" s="1">
+        <v>41426</v>
       </c>
       <c r="B553" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A554" s="3">
-        <v>45120</v>
+      <c r="A554" s="1">
+        <v>41456</v>
       </c>
       <c r="B554" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A555" s="3">
-        <v>45151</v>
+      <c r="A555" s="1">
+        <v>41487</v>
       </c>
       <c r="B555" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A556" s="3">
-        <v>45182</v>
+      <c r="A556" s="1">
+        <v>41518</v>
       </c>
       <c r="B556" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A557" s="3">
-        <v>45212</v>
+      <c r="A557" s="1">
+        <v>41548</v>
       </c>
       <c r="B557" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A558" s="3">
-        <v>45243</v>
+      <c r="A558" s="1">
+        <v>41579</v>
       </c>
       <c r="B558" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A559" s="3">
-        <v>45273</v>
+      <c r="A559" s="1">
+        <v>41609</v>
       </c>
       <c r="B559" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A560" s="3">
-        <v>44940</v>
+      <c r="A560" s="1">
+        <v>41640</v>
       </c>
       <c r="B560" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A561" s="3">
-        <v>44971</v>
+      <c r="A561" s="1">
+        <v>41671</v>
       </c>
       <c r="B561" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A562" s="3">
-        <v>44999</v>
+      <c r="A562" s="1">
+        <v>41699</v>
       </c>
       <c r="B562" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A563" s="3">
-        <v>45030</v>
+      <c r="A563" s="1">
+        <v>41730</v>
       </c>
       <c r="B563" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A564" s="3">
-        <v>45060</v>
+      <c r="A564" s="1">
+        <v>41760</v>
       </c>
       <c r="B564" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A565" s="3">
-        <v>45091</v>
+      <c r="A565" s="1">
+        <v>41791</v>
       </c>
       <c r="B565" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A566" s="3">
-        <v>45121</v>
+      <c r="A566" s="1">
+        <v>41821</v>
       </c>
       <c r="B566" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A567" s="3">
-        <v>45152</v>
+      <c r="A567" s="1">
+        <v>41852</v>
       </c>
       <c r="B567" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A568" s="3">
-        <v>45183</v>
+      <c r="A568" s="1">
+        <v>41883</v>
       </c>
       <c r="B568" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A569" s="3">
-        <v>45213</v>
+      <c r="A569" s="1">
+        <v>41913</v>
       </c>
       <c r="B569" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A570" s="3">
-        <v>45244</v>
+      <c r="A570" s="1">
+        <v>41944</v>
       </c>
       <c r="B570" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A571" s="3">
-        <v>45274</v>
+      <c r="A571" s="1">
+        <v>41974</v>
       </c>
       <c r="B571" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A572" s="3">
-        <v>44941</v>
+      <c r="A572" s="1">
+        <v>42005</v>
       </c>
       <c r="B572" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A573" s="3">
-        <v>44972</v>
+      <c r="A573" s="1">
+        <v>42036</v>
       </c>
       <c r="B573" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A574" s="3">
-        <v>45000</v>
+      <c r="A574" s="1">
+        <v>42064</v>
       </c>
       <c r="B574" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A575" s="3">
-        <v>45031</v>
+      <c r="A575" s="1">
+        <v>42095</v>
       </c>
       <c r="B575" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A576" s="3">
-        <v>45061</v>
+      <c r="A576" s="1">
+        <v>42125</v>
       </c>
       <c r="B576" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A577" s="3">
-        <v>45092</v>
+      <c r="A577" s="1">
+        <v>42156</v>
       </c>
       <c r="B577" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A578" s="3">
-        <v>45122</v>
+      <c r="A578" s="1">
+        <v>42186</v>
       </c>
       <c r="B578" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A579" s="3">
-        <v>45153</v>
+      <c r="A579" s="1">
+        <v>42217</v>
       </c>
       <c r="B579" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A580" s="3">
-        <v>45184</v>
+      <c r="A580" s="1">
+        <v>42248</v>
       </c>
       <c r="B580" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A581" s="3">
-        <v>45214</v>
+      <c r="A581" s="1">
+        <v>42278</v>
       </c>
       <c r="B581" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A582" s="3">
-        <v>45245</v>
+      <c r="A582" s="1">
+        <v>42309</v>
       </c>
       <c r="B582" s="2">
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A583" s="3">
-        <v>45275</v>
+      <c r="A583" s="1">
+        <v>42339</v>
       </c>
       <c r="B583" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A584" s="3">
-        <v>44942</v>
+      <c r="A584" s="1">
+        <v>42370</v>
       </c>
       <c r="B584" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A585" s="3">
-        <v>44973</v>
+      <c r="A585" s="1">
+        <v>42401</v>
       </c>
       <c r="B585" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A586" s="3">
-        <v>45001</v>
+      <c r="A586" s="1">
+        <v>42430</v>
       </c>
       <c r="B586" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A587" s="3">
-        <v>45032</v>
+      <c r="A587" s="1">
+        <v>42461</v>
       </c>
       <c r="B587" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A588" s="3">
-        <v>45062</v>
+      <c r="A588" s="1">
+        <v>42491</v>
       </c>
       <c r="B588" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A589" s="3">
-        <v>45093</v>
+      <c r="A589" s="1">
+        <v>42522</v>
       </c>
       <c r="B589" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A590" s="3">
-        <v>45123</v>
+      <c r="A590" s="1">
+        <v>42552</v>
       </c>
       <c r="B590" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A591" s="3">
-        <v>45154</v>
+      <c r="A591" s="1">
+        <v>42583</v>
       </c>
       <c r="B591" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A592" s="3">
-        <v>45185</v>
+      <c r="A592" s="1">
+        <v>42614</v>
       </c>
       <c r="B592" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A593" s="3">
-        <v>45215</v>
+      <c r="A593" s="1">
+        <v>42644</v>
       </c>
       <c r="B593" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A594" s="3">
-        <v>45246</v>
+      <c r="A594" s="1">
+        <v>42675</v>
       </c>
       <c r="B594" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A595" s="3">
-        <v>45276</v>
+      <c r="A595" s="1">
+        <v>42705</v>
       </c>
       <c r="B595" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A596" s="3">
-        <v>44943</v>
+      <c r="A596" s="1">
+        <v>42736</v>
       </c>
       <c r="B596" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A597" s="3">
-        <v>44974</v>
+      <c r="A597" s="1">
+        <v>42767</v>
       </c>
       <c r="B597" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A598" s="3">
-        <v>45002</v>
+      <c r="A598" s="1">
+        <v>42795</v>
       </c>
       <c r="B598" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A599" s="3">
-        <v>45033</v>
+      <c r="A599" s="1">
+        <v>42826</v>
       </c>
       <c r="B599" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A600" s="3">
-        <v>45063</v>
+      <c r="A600" s="1">
+        <v>42856</v>
       </c>
       <c r="B600" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A601" s="3">
-        <v>45094</v>
+      <c r="A601" s="1">
+        <v>42887</v>
       </c>
       <c r="B601" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A602" s="3">
-        <v>45124</v>
+      <c r="A602" s="1">
+        <v>42917</v>
       </c>
       <c r="B602" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A603" s="3">
-        <v>45155</v>
+      <c r="A603" s="1">
+        <v>42948</v>
       </c>
       <c r="B603" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A604" s="3">
-        <v>45186</v>
+      <c r="A604" s="1">
+        <v>42979</v>
       </c>
       <c r="B604" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A605" s="3">
-        <v>45216</v>
+      <c r="A605" s="1">
+        <v>43009</v>
       </c>
       <c r="B605" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A606" s="3">
-        <v>45247</v>
+      <c r="A606" s="1">
+        <v>43040</v>
       </c>
       <c r="B606" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A607" s="3">
-        <v>45277</v>
+      <c r="A607" s="1">
+        <v>43070</v>
       </c>
       <c r="B607" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A608" s="3">
-        <v>44944</v>
+      <c r="A608" s="1">
+        <v>43101</v>
       </c>
       <c r="B608" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A609" s="3">
-        <v>44975</v>
+      <c r="A609" s="1">
+        <v>43132</v>
       </c>
       <c r="B609" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A610" s="3">
-        <v>45003</v>
+      <c r="A610" s="1">
+        <v>43160</v>
       </c>
       <c r="B610" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A611" s="3">
-        <v>45034</v>
+      <c r="A611" s="1">
+        <v>43191</v>
       </c>
       <c r="B611" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A612" s="3">
-        <v>45064</v>
+      <c r="A612" s="1">
+        <v>43221</v>
       </c>
       <c r="B612" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A613" s="3">
-        <v>45095</v>
+      <c r="A613" s="1">
+        <v>43252</v>
       </c>
       <c r="B613" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A614" s="3">
-        <v>45125</v>
+      <c r="A614" s="1">
+        <v>43282</v>
       </c>
       <c r="B614" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A615" s="3">
-        <v>45156</v>
+      <c r="A615" s="1">
+        <v>43313</v>
       </c>
       <c r="B615" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A616" s="3">
-        <v>45187</v>
+      <c r="A616" s="1">
+        <v>43344</v>
       </c>
       <c r="B616" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A617" s="3">
-        <v>45217</v>
+      <c r="A617" s="1">
+        <v>43374</v>
       </c>
       <c r="B617" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A618" s="3">
-        <v>45248</v>
+      <c r="A618" s="1">
+        <v>43405</v>
       </c>
       <c r="B618" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A619" s="3">
-        <v>45278</v>
+      <c r="A619" s="1">
+        <v>43435</v>
       </c>
       <c r="B619" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A620" s="3">
-        <v>44945</v>
+      <c r="A620" s="1">
+        <v>43466</v>
       </c>
       <c r="B620" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A621" s="3">
-        <v>44976</v>
+      <c r="A621" s="1">
+        <v>43497</v>
       </c>
       <c r="B621" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A622" s="3">
-        <v>45004</v>
+      <c r="A622" s="1">
+        <v>43525</v>
       </c>
       <c r="B622" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A623" s="3">
-        <v>45035</v>
+      <c r="A623" s="1">
+        <v>43556</v>
       </c>
       <c r="B623" s="2">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A624" s="3">
-        <v>45065</v>
+      <c r="A624" s="1">
+        <v>43586</v>
       </c>
       <c r="B624" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A625" s="3">
-        <v>45096</v>
+      <c r="A625" s="1">
+        <v>43617</v>
       </c>
       <c r="B625" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A626" s="3">
-        <v>45126</v>
+      <c r="A626" s="1">
+        <v>43647</v>
       </c>
       <c r="B626" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A627" s="3">
-        <v>45157</v>
+      <c r="A627" s="1">
+        <v>43678</v>
       </c>
       <c r="B627" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A628" s="3">
-        <v>45188</v>
+      <c r="A628" s="1">
+        <v>43709</v>
       </c>
       <c r="B628" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A629" s="3">
-        <v>45218</v>
+      <c r="A629" s="1">
+        <v>43739</v>
       </c>
       <c r="B629" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A630" s="3">
-        <v>45249</v>
+      <c r="A630" s="1">
+        <v>43770</v>
       </c>
       <c r="B630" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A631" s="3">
-        <v>45279</v>
+      <c r="A631" s="1">
+        <v>43800</v>
       </c>
       <c r="B631" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A632" s="3">
-        <v>44946</v>
+      <c r="A632" s="1">
+        <v>43831</v>
       </c>
       <c r="B632" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A633" s="3">
-        <v>44977</v>
+      <c r="A633" s="1">
+        <v>43862</v>
       </c>
       <c r="B633" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A634" s="3">
-        <v>45005</v>
+      <c r="A634" s="1">
+        <v>43891</v>
       </c>
       <c r="B634" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A635" s="3">
-        <v>45036</v>
+      <c r="A635" s="1">
+        <v>43922</v>
       </c>
       <c r="B635" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A636" s="3">
-        <v>45066</v>
+      <c r="A636" s="1">
+        <v>43952</v>
       </c>
       <c r="B636" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A637" s="3">
-        <v>45097</v>
+      <c r="A637" s="1">
+        <v>43983</v>
       </c>
       <c r="B637" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A638" s="3">
-        <v>45127</v>
+      <c r="A638" s="1">
+        <v>44013</v>
       </c>
       <c r="B638" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A639" s="3">
-        <v>45158</v>
+      <c r="A639" s="1">
+        <v>44044</v>
       </c>
       <c r="B639" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A640" s="3">
-        <v>45189</v>
+      <c r="A640" s="1">
+        <v>44075</v>
       </c>
       <c r="B640" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A641" s="3">
-        <v>45219</v>
+      <c r="A641" s="1">
+        <v>44105</v>
       </c>
       <c r="B641" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642" s="3">
-        <v>45250</v>
+      <c r="A642" s="1">
+        <v>44136</v>
       </c>
       <c r="B642" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A643" s="3">
-        <v>45280</v>
+      <c r="A643" s="1">
+        <v>44166</v>
       </c>
       <c r="B643" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A644" s="3">
-        <v>44947</v>
+      <c r="A644" s="1">
+        <v>44197</v>
       </c>
       <c r="B644" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A645" s="3">
-        <v>44978</v>
+      <c r="A645" s="1">
+        <v>44228</v>
       </c>
       <c r="B645" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A646" s="3">
-        <v>45006</v>
+      <c r="A646" s="1">
+        <v>44256</v>
       </c>
       <c r="B646" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A647" s="3">
-        <v>45037</v>
+      <c r="A647" s="1">
+        <v>44287</v>
       </c>
       <c r="B647" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A648" s="3">
-        <v>45067</v>
+      <c r="A648" s="1">
+        <v>44317</v>
       </c>
       <c r="B648" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A649" s="3">
-        <v>45098</v>
+      <c r="A649" s="1">
+        <v>44348</v>
       </c>
       <c r="B649" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A650" s="3">
-        <v>45128</v>
+      <c r="A650" s="1">
+        <v>44378</v>
       </c>
       <c r="B650" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A651" s="3">
-        <v>45159</v>
+      <c r="A651" s="1">
+        <v>44409</v>
       </c>
       <c r="B651" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A652" s="3">
-        <v>45190</v>
+      <c r="A652" s="1">
+        <v>44440</v>
       </c>
       <c r="B652" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A653" s="3">
-        <v>45220</v>
+      <c r="A653" s="1">
+        <v>44470</v>
       </c>
       <c r="B653" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A654" s="3">
-        <v>45251</v>
+      <c r="A654" s="1">
+        <v>44501</v>
       </c>
       <c r="B654" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A655" s="3">
-        <v>45281</v>
+      <c r="A655" s="1">
+        <v>44531</v>
       </c>
       <c r="B655" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A656" s="3">
-        <v>44948</v>
+      <c r="A656" s="1">
+        <v>44562</v>
       </c>
       <c r="B656" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A657" s="3">
-        <v>44979</v>
+      <c r="A657" s="1">
+        <v>44593</v>
       </c>
       <c r="B657" s="2">
         <v>2E-3</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A658" s="3">
-        <v>45007</v>
+      <c r="A658" s="1">
+        <v>44621</v>
       </c>
       <c r="B658" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A659" s="3">
-        <v>45038</v>
+      <c r="A659" s="1">
+        <v>44652</v>
       </c>
       <c r="B659" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A660" s="3">
-        <v>45068</v>
+      <c r="A660" s="1">
+        <v>44682</v>
       </c>
       <c r="B660" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A661" s="3">
-        <v>45099</v>
+      <c r="A661" s="1">
+        <v>44713</v>
       </c>
       <c r="B661" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A662" s="3">
-        <v>45129</v>
+      <c r="A662" s="1">
+        <v>44743</v>
       </c>
       <c r="B662" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A663" s="3">
-        <v>45160</v>
+      <c r="A663" s="1">
+        <v>44774</v>
       </c>
       <c r="B663" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A664" s="3">
-        <v>45191</v>
+      <c r="A664" s="1">
+        <v>44805</v>
       </c>
       <c r="B664" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A665" s="3">
-        <v>45221</v>
+      <c r="A665" s="1">
+        <v>44835</v>
       </c>
       <c r="B665" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A666" s="3">
-        <v>45252</v>
+      <c r="A666" s="1">
+        <v>44866</v>
       </c>
       <c r="B666" s="2">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A667" s="3">
-        <v>45282</v>
+      <c r="A667" s="1">
+        <v>44896</v>
       </c>
       <c r="B667" s="2">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A668" s="3">
-        <v>44949</v>
+      <c r="A668" s="1">
+        <v>44927</v>
       </c>
       <c r="B668" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A669" s="3">
-        <v>44980</v>
+      <c r="A669" s="1">
+        <v>44958</v>
       </c>
       <c r="B669" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A670" s="3">
-        <v>45008</v>
+      <c r="A670" s="1">
+        <v>44986</v>
       </c>
       <c r="B670" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A671" s="3">
-        <v>45039</v>
+      <c r="A671" s="1">
+        <v>45017</v>
       </c>
       <c r="B671" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A672" s="3">
-        <v>45069</v>
+      <c r="A672" s="1">
+        <v>45047</v>
       </c>
       <c r="B672" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A673" s="3">
-        <v>45100</v>
+      <c r="A673" s="1">
+        <v>45078</v>
       </c>
       <c r="B673" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A674" s="3">
-        <v>45130</v>
+      <c r="A674" s="1">
+        <v>45108</v>
       </c>
       <c r="B674" s="2">
         <v>8.0000000000000002E-3</v>
